--- a/data/trans_orig/SE_ADU-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/SE_ADU-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BC2F404-70FA-4227-A454-C35BCBAE1FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1E929BB-B723-411A-849E-9C1C91067304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2EE1FCF3-87CF-4058-898D-6046EFE90DF1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5B2E3CB3-59D8-4BDF-A8E6-FB93B68215EB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="212">
   <si>
     <t>Sexo adulto elegido en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -92,10 +92,10 @@
     <t>49,43%</t>
   </si>
   <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
   </si>
   <si>
     <t>98,19%</t>
@@ -107,13 +107,13 @@
     <t>50,57%</t>
   </si>
   <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -125,85 +125,85 @@
     <t>49,87%</t>
   </si>
   <si>
-    <t>46,8%</t>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
   </si>
   <si>
     <t>52,91%</t>
   </si>
   <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
   </si>
   <si>
     <t>47,09%</t>
   </si>
   <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
+    <t>52,36%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -218,7 +218,7 @@
     <t>52,43%</t>
   </si>
   <si>
-    <t>50,27%</t>
+    <t>50,28%</t>
   </si>
   <si>
     <t>54,66%</t>
@@ -230,7 +230,7 @@
     <t>45,34%</t>
   </si>
   <si>
-    <t>49,73%</t>
+    <t>49,72%</t>
   </si>
   <si>
     <t>0,06%</t>
@@ -242,286 +242,292 @@
     <t>50,77%</t>
   </si>
   <si>
-    <t>49,42%</t>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Sexo adulto elegido en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
   </si>
   <si>
     <t>51,9%</t>
   </si>
   <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Sexo adulto elegido en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>Sexo adulto elegido en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
   </si>
   <si>
     <t>48,06%</t>
   </si>
   <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
   </si>
   <si>
     <t>51,94%</t>
   </si>
   <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>Sexo adulto elegido en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
     <t>52,68%</t>
   </si>
   <si>
-    <t>54,87%</t>
+    <t>55,05%</t>
   </si>
   <si>
     <t>47,32%</t>
   </si>
   <si>
-    <t>45,13%</t>
+    <t>44,95%</t>
   </si>
   <si>
     <t>51,08%</t>
   </si>
   <si>
-    <t>52,33%</t>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
   </si>
   <si>
     <t>48,92%</t>
   </si>
   <si>
-    <t>47,67%</t>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
   </si>
   <si>
     <t>Sexo adulto elegido en 2023 (Tasa respuesta: 100,0%)</t>
@@ -1080,7 +1086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E7983E7-0677-45B4-9A1C-98779BAE7BDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBBEB9B3-9183-4FF1-B74C-337AF4786159}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2027,7 +2033,7 @@
         <v>3214</v>
       </c>
       <c r="D20" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>13</v>
@@ -2078,7 +2084,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>15</v>
@@ -2143,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73AD8777-83E2-44EF-B6E7-3D5A5FE6327F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC90F1B4-012A-44C2-9DCB-2BED6FED47CA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3206,7 +3212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA5B668A-6FDE-4F0E-B2C8-6D7A63D6D45F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDAF478-7BD6-4EA5-94A9-4503747D4E23}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3983,7 +3989,7 @@
         <v>153</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>154</v>
@@ -4037,7 +4043,7 @@
         <v>156</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,10 +4144,10 @@
         <v>157</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,13 +4192,13 @@
         <v>3394350</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,7 +4275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9954BB8C-4696-4BAE-BFA8-0D585B85D109}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA7986B-D895-4C66-A50C-B89E3EFA6B5A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4286,7 +4292,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4399,7 +4405,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>243</v>
@@ -4411,7 +4417,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -4423,13 +4429,13 @@
         <v>130733</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,7 +4453,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>15</v>
@@ -4465,7 +4471,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>118</v>
@@ -4474,13 +4480,13 @@
         <v>101982</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,7 +4560,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H7" s="7">
         <v>998</v>
@@ -4578,13 +4584,13 @@
         <v>619967</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4602,7 +4608,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>15</v>
@@ -4629,13 +4635,13 @@
         <v>549823</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4721,7 +4727,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -4736,10 +4742,10 @@
         <v>139</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4775,7 +4781,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M11" s="7">
         <v>964</v>
@@ -4787,10 +4793,10 @@
         <v>142</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4876,7 +4882,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
@@ -4888,13 +4894,13 @@
         <v>874371</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4930,7 +4936,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M14" s="7">
         <v>676</v>
@@ -4939,13 +4945,13 @@
         <v>728771</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5031,7 +5037,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
@@ -5043,13 +5049,13 @@
         <v>1150432</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5085,7 +5091,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M17" s="7">
         <v>1006</v>
@@ -5094,13 +5100,13 @@
         <v>965403</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5186,7 +5192,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>15</v>
@@ -5198,13 +5204,13 @@
         <v>3835580</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5240,7 +5246,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M20" s="7">
         <v>3376</v>
@@ -5249,13 +5255,13 @@
         <v>3385228</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/SE_ADU-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/SE_ADU-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1E929BB-B723-411A-849E-9C1C91067304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9DF8744-EC8F-4F2C-8053-B95D8649AF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5B2E3CB3-59D8-4BDF-A8E6-FB93B68215EB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6ECAF775-D688-45A6-B675-EA0859BAD2F0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="206">
   <si>
     <t>Sexo adulto elegido en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -92,10 +92,10 @@
     <t>49,43%</t>
   </si>
   <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
   </si>
   <si>
     <t>98,19%</t>
@@ -107,10 +107,10 @@
     <t>50,57%</t>
   </si>
   <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
   </si>
   <si>
     <t>2-10.000 hab</t>
@@ -125,10 +125,10 @@
     <t>49,87%</t>
   </si>
   <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
   </si>
   <si>
     <t>99,67%</t>
@@ -140,10 +140,10 @@
     <t>50,13%</t>
   </si>
   <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -158,19 +158,19 @@
     <t>50,17%</t>
   </si>
   <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
   </si>
   <si>
     <t>49,83%</t>
   </si>
   <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -185,10 +185,10 @@
     <t>50,2%</t>
   </si>
   <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
   </si>
   <si>
     <t>99,7%</t>
@@ -200,10 +200,10 @@
     <t>49,8%</t>
   </si>
   <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -218,19 +218,19 @@
     <t>52,43%</t>
   </si>
   <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
   </si>
   <si>
     <t>47,57%</t>
   </si>
   <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
   </si>
   <si>
     <t>0,06%</t>
@@ -242,19 +242,19 @@
     <t>50,77%</t>
   </si>
   <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
   </si>
   <si>
     <t>49,23%</t>
   </si>
   <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -272,10 +272,10 @@
     <t>49,15%</t>
   </si>
   <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
   </si>
   <si>
     <t>98,44%</t>
@@ -287,10 +287,10 @@
     <t>50,85%</t>
   </si>
   <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
   </si>
   <si>
     <t>0,35%</t>
@@ -302,19 +302,19 @@
     <t>49,89%</t>
   </si>
   <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
   </si>
   <si>
     <t>50,11%</t>
   </si>
   <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
   </si>
   <si>
     <t>0,2%</t>
@@ -326,19 +326,13 @@
     <t>50,35%</t>
   </si>
   <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
+    <t>48,18%</t>
   </si>
   <si>
     <t>49,65%</t>
   </si>
   <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
+    <t>51,82%</t>
   </si>
   <si>
     <t>99,73%</t>
@@ -347,10 +341,10 @@
     <t>50,64%</t>
   </si>
   <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
   </si>
   <si>
     <t>0,27%</t>
@@ -359,46 +353,46 @@
     <t>49,36%</t>
   </si>
   <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
   </si>
   <si>
     <t>52,6%</t>
   </si>
   <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
   </si>
   <si>
     <t>47,4%</t>
   </si>
   <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
   </si>
   <si>
     <t>50,94%</t>
   </si>
   <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
   </si>
   <si>
     <t>49,06%</t>
   </si>
   <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
   </si>
   <si>
     <t>Sexo adulto elegido en 2016 (Tasa respuesta: 100,0%)</t>
@@ -413,10 +407,10 @@
     <t>49,31%</t>
   </si>
   <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
   </si>
   <si>
     <t>98,32%</t>
@@ -428,10 +422,10 @@
     <t>50,69%</t>
   </si>
   <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
   </si>
   <si>
     <t>0,36%</t>
@@ -440,10 +434,10 @@
     <t>50,05%</t>
   </si>
   <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
   </si>
   <si>
     <t>99,64%</t>
@@ -452,28 +446,28 @@
     <t>49,95%</t>
   </si>
   <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
   </si>
   <si>
     <t>50,5%</t>
   </si>
   <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
   </si>
   <si>
     <t>49,5%</t>
   </si>
   <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
   </si>
   <si>
     <t>99,74%</t>
@@ -482,10 +476,10 @@
     <t>50,82%</t>
   </si>
   <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
   </si>
   <si>
     <t>0,26%</t>
@@ -494,40 +488,40 @@
     <t>49,18%</t>
   </si>
   <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
   </si>
   <si>
     <t>52,68%</t>
   </si>
   <si>
-    <t>55,05%</t>
+    <t>54,87%</t>
   </si>
   <si>
     <t>47,32%</t>
   </si>
   <si>
-    <t>44,95%</t>
+    <t>45,13%</t>
   </si>
   <si>
     <t>51,08%</t>
   </si>
   <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
   </si>
   <si>
     <t>48,92%</t>
   </si>
   <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
   </si>
   <si>
     <t>Sexo adulto elegido en 2023 (Tasa respuesta: 100,0%)</t>
@@ -542,10 +536,10 @@
     <t>56,18%</t>
   </si>
   <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
   </si>
   <si>
     <t>98,39%</t>
@@ -557,10 +551,10 @@
     <t>43,82%</t>
   </si>
   <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
   </si>
   <si>
     <t>0,31%</t>
@@ -569,10 +563,7 @@
     <t>53,0%</t>
   </si>
   <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
+    <t>49,91%</t>
   </si>
   <si>
     <t>99,69%</t>
@@ -581,28 +572,25 @@
     <t>47,0%</t>
   </si>
   <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
+    <t>50,09%</t>
   </si>
   <si>
     <t>99,87%</t>
   </si>
   <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
   </si>
   <si>
     <t>0,13%</t>
   </si>
   <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
   </si>
   <si>
     <t>99,82%</t>
@@ -611,10 +599,10 @@
     <t>54,54%</t>
   </si>
   <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
   </si>
   <si>
     <t>0,18%</t>
@@ -623,10 +611,10 @@
     <t>45,46%</t>
   </si>
   <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
   </si>
   <si>
     <t>99,88%</t>
@@ -635,10 +623,7 @@
     <t>54,37%</t>
   </si>
   <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
+    <t>52,33%</t>
   </si>
   <si>
     <t>0,12%</t>
@@ -647,10 +632,7 @@
     <t>45,63%</t>
   </si>
   <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
+    <t>47,67%</t>
   </si>
   <si>
     <t>99,96%</t>
@@ -659,10 +641,10 @@
     <t>53,12%</t>
   </si>
   <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
   </si>
   <si>
     <t>0,04%</t>
@@ -671,10 +653,10 @@
     <t>46,88%</t>
   </si>
   <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBBEB9B3-9183-4FF1-B74C-337AF4786159}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F413AB9D-65EC-4989-B745-FE2DEB2274EB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2033,7 +2015,7 @@
         <v>3214</v>
       </c>
       <c r="D20" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>13</v>
@@ -2063,7 +2045,7 @@
         <v>3214</v>
       </c>
       <c r="N20" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>69</v>
@@ -2084,7 +2066,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>15</v>
@@ -2114,7 +2096,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>15</v>
@@ -2149,7 +2131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC90F1B4-012A-44C2-9DCB-2BED6FED47CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3966FEE2-BF67-44B1-9E37-A0101F71E479}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2619,7 +2601,7 @@
         <v>95</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,13 +2646,13 @@
         <v>1017947</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,7 +2738,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
@@ -2768,13 +2750,13 @@
         <v>777174</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,7 +2792,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>689</v>
@@ -2819,13 +2801,13 @@
         <v>757623</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2923,13 +2905,13 @@
         <v>1051901</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2974,13 +2956,13 @@
         <v>947739</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,13 +3060,13 @@
         <v>3558309</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3129,13 +3111,13 @@
         <v>3426779</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3212,7 +3194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDAF478-7BD6-4EA5-94A9-4503747D4E23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{573B12A1-852F-4EFF-836F-1334185C8E22}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3229,7 +3211,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3342,7 +3324,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H4" s="7">
         <v>115</v>
@@ -3354,7 +3336,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -3366,13 +3348,13 @@
         <v>113360</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3390,7 +3372,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>15</v>
@@ -3408,7 +3390,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M5" s="7">
         <v>113</v>
@@ -3417,13 +3399,13 @@
         <v>116546</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,7 +3479,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H7" s="7">
         <v>551</v>
@@ -3521,13 +3503,13 @@
         <v>559479</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,7 +3527,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>15</v>
@@ -3572,13 +3554,13 @@
         <v>558254</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,13 +3658,13 @@
         <v>1042913</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3727,13 +3709,13 @@
         <v>1022431</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3819,7 +3801,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
@@ -3831,13 +3813,13 @@
         <v>785011</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,7 +3855,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M14" s="7">
         <v>696</v>
@@ -3882,13 +3864,13 @@
         <v>759552</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,13 +3968,13 @@
         <v>1043779</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,13 +4019,13 @@
         <v>937567</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,13 +4123,13 @@
         <v>3544542</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,13 +4174,13 @@
         <v>3394350</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4275,7 +4257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BA7986B-D895-4C66-A50C-B89E3EFA6B5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E06DDCE-95B1-4B48-99DB-AB31BA839CB8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4292,7 +4274,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4405,7 +4387,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>243</v>
@@ -4417,7 +4399,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -4429,13 +4411,13 @@
         <v>130733</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4453,7 +4435,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>15</v>
@@ -4471,7 +4453,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M5" s="7">
         <v>118</v>
@@ -4480,13 +4462,13 @@
         <v>101982</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,7 +4542,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H7" s="7">
         <v>998</v>
@@ -4584,13 +4566,13 @@
         <v>619967</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4608,7 +4590,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>15</v>
@@ -4635,13 +4617,13 @@
         <v>549823</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,7 +4709,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -4739,13 +4721,13 @@
         <v>1060079</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4781,7 +4763,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="M11" s="7">
         <v>964</v>
@@ -4790,13 +4772,13 @@
         <v>1039248</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4882,7 +4864,7 @@
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
@@ -4894,13 +4876,13 @@
         <v>874371</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4936,7 +4918,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M14" s="7">
         <v>676</v>
@@ -4945,13 +4927,13 @@
         <v>728771</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,7 +5019,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
@@ -5049,13 +5031,13 @@
         <v>1150432</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5091,7 +5073,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="M17" s="7">
         <v>1006</v>
@@ -5100,13 +5082,13 @@
         <v>965403</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>202</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5192,7 +5174,7 @@
         <v>13</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>15</v>
@@ -5201,16 +5183,16 @@
         <v>5367</v>
       </c>
       <c r="N19" s="7">
-        <v>3835580</v>
+        <v>3835581</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5246,7 +5228,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="M20" s="7">
         <v>3376</v>
@@ -5255,13 +5237,13 @@
         <v>3385228</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5303,7 +5285,7 @@
         <v>8743</v>
       </c>
       <c r="N21" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>15</v>

--- a/data/trans_orig/SE_ADU-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/SE_ADU-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9DF8744-EC8F-4F2C-8053-B95D8649AF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1474BAC-BBC1-44B0-9ADF-025A52A830EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6ECAF775-D688-45A6-B675-EA0859BAD2F0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CED4C404-5C99-4BAE-880A-AB3047F734DD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="161">
   <si>
     <t>Sexo adulto elegido en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -77,586 +77,451 @@
     <t>0%</t>
   </si>
   <si>
-    <t>1,81%</t>
+    <t>0,28%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>98,51%</t>
+    <t>99,72%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>49,43%</t>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>47,44%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>53,03%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Sexo adulto elegido en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>Sexo adulto elegido en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>Sexo adulto elegido en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
   </si>
   <si>
     <t>43,02%</t>
   </si>
   <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>53,03%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Sexo adulto elegido en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>Sexo adulto elegido en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>Sexo adulto elegido en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
   </si>
   <si>
     <t>99,88%</t>
   </si>
   <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
   </si>
   <si>
     <t>0,12%</t>
   </si>
   <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
   </si>
   <si>
     <t>99,96%</t>
   </si>
   <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
   </si>
   <si>
     <t>0,04%</t>
   </si>
   <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
   </si>
 </sst>
 </file>
@@ -1068,8 +933,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F413AB9D-65EC-4989-B745-FE2DEB2274EB}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD738DA-E4D7-4CEF-B6CC-FBD9300D2BA6}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1201,10 +1066,10 @@
         <v>12</v>
       </c>
       <c r="H4" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I4" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>13</v>
@@ -1216,10 +1081,10 @@
         <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="N4" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1237,16 +1102,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D5" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>15</v>
@@ -1264,22 +1129,22 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="7">
+        <v>683</v>
+      </c>
+      <c r="N5" s="7">
+        <v>694012</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="7">
-        <v>105</v>
-      </c>
-      <c r="N5" s="7">
-        <v>115358</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1288,10 +1153,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>15</v>
@@ -1303,10 +1168,10 @@
         <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>15</v>
@@ -1318,10 +1183,10 @@
         <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>15</v>
@@ -1335,7 +1200,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>2</v>
@@ -1353,37 +1218,37 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H7" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I7" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="7">
+        <v>908</v>
+      </c>
+      <c r="N7" s="7">
+        <v>968393</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="7">
-        <v>568</v>
-      </c>
-      <c r="N7" s="7">
-        <v>575596</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1392,16 +1257,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D8" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>15</v>
@@ -1419,22 +1284,22 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="N8" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1443,10 +1308,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
@@ -1458,10 +1323,10 @@
         <v>15</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>15</v>
@@ -1473,10 +1338,10 @@
         <v>15</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>15</v>
@@ -1490,7 +1355,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>2</v>
@@ -1508,37 +1373,37 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H10" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I10" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M10" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="N10" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1547,16 +1412,16 @@
         <v>1</v>
       </c>
       <c r="C11" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D11" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>15</v>
@@ -1574,22 +1439,22 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="7">
+        <v>641</v>
+      </c>
+      <c r="N11" s="7">
+        <v>678509</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M11" s="7">
-        <v>896</v>
-      </c>
-      <c r="N11" s="7">
-        <v>961800</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1598,10 +1463,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>15</v>
@@ -1613,10 +1478,10 @@
         <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>15</v>
@@ -1628,10 +1493,10 @@
         <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>15</v>
@@ -1645,7 +1510,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>2</v>
@@ -1663,37 +1528,37 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H13" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I13" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M13" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="N13" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1702,16 +1567,16 @@
         <v>1</v>
       </c>
       <c r="C14" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D14" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>15</v>
@@ -1729,22 +1594,22 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="M14" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="N14" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1753,10 +1618,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>15</v>
@@ -1768,10 +1633,10 @@
         <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>15</v>
@@ -1783,10 +1648,10 @@
         <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>15</v>
@@ -1800,7 +1665,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>2</v>
@@ -1818,37 +1683,37 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H16" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I16" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M16" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="N16" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1857,16 +1722,16 @@
         <v>1</v>
       </c>
       <c r="C17" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D17" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>15</v>
@@ -1884,22 +1749,22 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="M17" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="N17" s="7">
-        <v>942222</v>
+        <v>3276544</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1908,10 +1773,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>15</v>
@@ -1923,10 +1788,10 @@
         <v>15</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>15</v>
@@ -1938,10 +1803,10 @@
         <v>15</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>15</v>
@@ -1954,171 +1819,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3297</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3379197</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3214</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3276543</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>72</v>
+      <c r="A19" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2131,8 +1840,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3966FEE2-BF67-44B1-9E37-A0101F71E479}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55621236-C100-46C0-BDB1-52EF9D276278}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2148,7 +1857,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2261,37 +1970,37 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="H4" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I4" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="N4" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2300,16 +2009,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D5" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>15</v>
@@ -2327,22 +2036,22 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="M5" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="N5" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,10 +2060,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>15</v>
@@ -2366,10 +2075,10 @@
         <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>15</v>
@@ -2381,10 +2090,10 @@
         <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>15</v>
@@ -2398,7 +2107,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>2</v>
@@ -2416,37 +2125,37 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="H7" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I7" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M7" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="N7" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2455,16 +2164,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D8" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>15</v>
@@ -2482,22 +2191,22 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="M8" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="N8" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,10 +2215,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
@@ -2521,10 +2230,10 @@
         <v>15</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>15</v>
@@ -2536,10 +2245,10 @@
         <v>15</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1876</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2050131</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>15</v>
@@ -2553,7 +2262,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>2</v>
@@ -2571,37 +2280,37 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H10" s="7">
-        <v>940</v>
+        <v>705</v>
       </c>
       <c r="I10" s="7">
-        <v>1032184</v>
+        <v>777174</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M10" s="7">
-        <v>940</v>
+        <v>705</v>
       </c>
       <c r="N10" s="7">
-        <v>1032184</v>
+        <v>777174</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2610,16 +2319,16 @@
         <v>1</v>
       </c>
       <c r="C11" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D11" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>15</v>
@@ -2637,22 +2346,22 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="N11" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2661,10 +2370,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>15</v>
@@ -2676,10 +2385,10 @@
         <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>940</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1032184</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>15</v>
@@ -2691,10 +2400,10 @@
         <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>1876</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2050131</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>15</v>
@@ -2708,7 +2417,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>2</v>
@@ -2726,37 +2435,37 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="H13" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I13" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M13" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="N13" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2765,16 +2474,16 @@
         <v>1</v>
       </c>
       <c r="C14" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D14" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>15</v>
@@ -2792,22 +2501,22 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="M14" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="N14" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2816,10 +2525,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>15</v>
@@ -2831,10 +2540,10 @@
         <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>15</v>
@@ -2846,10 +2555,10 @@
         <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>15</v>
@@ -2863,7 +2572,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>2</v>
@@ -2881,37 +2590,37 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H16" s="7">
-        <v>1003</v>
+        <v>3298</v>
       </c>
       <c r="I16" s="7">
-        <v>1051901</v>
+        <v>3558309</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M16" s="7">
-        <v>1003</v>
+        <v>3298</v>
       </c>
       <c r="N16" s="7">
-        <v>1051901</v>
+        <v>3558309</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2920,16 +2629,16 @@
         <v>1</v>
       </c>
       <c r="C17" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D17" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>15</v>
@@ -2947,22 +2656,22 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="M17" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="N17" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,10 +2680,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>15</v>
@@ -2986,10 +2695,10 @@
         <v>15</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3298</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3558309</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>15</v>
@@ -3001,10 +2710,10 @@
         <v>15</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6507</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6985088</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>15</v>
@@ -3017,171 +2726,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3558309</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3298</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3558309</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3209</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3558309</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6507</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6985088</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>72</v>
+      <c r="A19" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3194,8 +2747,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{573B12A1-852F-4EFF-836F-1334185C8E22}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77C262F-997C-45B9-87DC-2D2AF6AB5078}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3211,7 +2764,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3324,37 +2877,37 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="H4" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I4" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="N4" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3363,16 +2916,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D5" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>15</v>
@@ -3390,22 +2943,22 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="M5" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="N5" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,10 +2967,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>15</v>
@@ -3429,10 +2982,10 @@
         <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>15</v>
@@ -3444,10 +2997,10 @@
         <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>15</v>
@@ -3461,7 +3014,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>2</v>
@@ -3479,37 +3032,37 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>129</v>
+        <v>63</v>
       </c>
       <c r="H7" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I7" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M7" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="N7" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3518,16 +3071,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D8" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>133</v>
+        <v>64</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>15</v>
@@ -3545,22 +3098,22 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="M8" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="N8" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3569,10 +3122,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
@@ -3584,10 +3137,10 @@
         <v>15</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>15</v>
@@ -3599,10 +3152,10 @@
         <v>15</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>15</v>
@@ -3616,7 +3169,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>2</v>
@@ -3634,37 +3187,37 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H10" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I10" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M10" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="N10" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,16 +3226,16 @@
         <v>1</v>
       </c>
       <c r="C11" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D11" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>15</v>
@@ -3700,22 +3253,22 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="M11" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="N11" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3724,10 +3277,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>15</v>
@@ -3739,10 +3292,10 @@
         <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>15</v>
@@ -3754,10 +3307,10 @@
         <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>15</v>
@@ -3771,7 +3324,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>2</v>
@@ -3789,37 +3342,37 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="H13" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I13" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M13" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="N13" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,16 +3381,16 @@
         <v>1</v>
       </c>
       <c r="C14" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D14" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>15</v>
@@ -3855,22 +3408,22 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>147</v>
+        <v>63</v>
       </c>
       <c r="M14" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="N14" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>150</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,10 +3432,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>15</v>
@@ -3894,10 +3447,10 @@
         <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>15</v>
@@ -3909,10 +3462,10 @@
         <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>15</v>
@@ -3926,7 +3479,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>2</v>
@@ -3944,37 +3497,37 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H16" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I16" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M16" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="N16" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3983,16 +3536,16 @@
         <v>1</v>
       </c>
       <c r="C17" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D17" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>15</v>
@@ -4010,22 +3563,22 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="M17" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="N17" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,10 +3587,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>15</v>
@@ -4049,10 +3602,10 @@
         <v>15</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>15</v>
@@ -4064,10 +3617,10 @@
         <v>15</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>15</v>
@@ -4080,171 +3633,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3338</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3231</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>72</v>
+      <c r="A19" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4257,8 +3654,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E06DDCE-95B1-4B48-99DB-AB31BA839CB8}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4EFA4D-F8B4-4CEB-924C-80B67EF9A9F9}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4274,7 +3671,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4387,37 +3784,37 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>243</v>
+        <v>1241</v>
       </c>
       <c r="I4" s="7">
-        <v>130733</v>
+        <v>725330</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>243</v>
+        <v>1241</v>
       </c>
       <c r="N4" s="7">
-        <v>130733</v>
+        <v>725331</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,16 +3823,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D5" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>15</v>
@@ -4453,22 +3850,22 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="M5" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="N5" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4477,10 +3874,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>15</v>
@@ -4492,10 +3889,10 @@
         <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1241</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>725330</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>15</v>
@@ -4507,10 +3904,10 @@
         <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1971</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1360772</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>15</v>
@@ -4524,7 +3921,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>2</v>
@@ -4542,37 +3939,37 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>172</v>
+        <v>63</v>
       </c>
       <c r="H7" s="7">
-        <v>998</v>
+        <v>1517</v>
       </c>
       <c r="I7" s="7">
-        <v>619967</v>
+        <v>958651</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M7" s="7">
-        <v>998</v>
+        <v>1517</v>
       </c>
       <c r="N7" s="7">
-        <v>619967</v>
+        <v>958652</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4581,16 +3978,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D8" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>175</v>
+        <v>64</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>15</v>
@@ -4608,22 +4005,22 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>56</v>
+        <v>135</v>
       </c>
       <c r="M8" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="N8" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4632,10 +4029,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
@@ -4647,10 +4044,10 @@
         <v>15</v>
       </c>
       <c r="H9" s="7">
-        <v>998</v>
+        <v>1517</v>
       </c>
       <c r="I9" s="7">
-        <v>619967</v>
+        <v>958651</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>15</v>
@@ -4662,10 +4059,10 @@
         <v>15</v>
       </c>
       <c r="M9" s="7">
-        <v>1610</v>
+        <v>2481</v>
       </c>
       <c r="N9" s="7">
-        <v>1169790</v>
+        <v>2151516</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>15</v>
@@ -4679,7 +4076,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>2</v>
@@ -4697,37 +4094,37 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="H10" s="7">
-        <v>1517</v>
+        <v>1047</v>
       </c>
       <c r="I10" s="7">
-        <v>1060079</v>
+        <v>933366</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M10" s="7">
-        <v>1517</v>
+        <v>1047</v>
       </c>
       <c r="N10" s="7">
-        <v>1060079</v>
+        <v>933366</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4736,16 +4133,16 @@
         <v>1</v>
       </c>
       <c r="C11" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D11" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>15</v>
@@ -4763,22 +4160,22 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="M11" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="N11" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4787,10 +4184,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>15</v>
@@ -4802,10 +4199,10 @@
         <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>1517</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1060079</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>15</v>
@@ -4817,10 +4214,10 @@
         <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>2481</v>
+        <v>1723</v>
       </c>
       <c r="N12" s="7">
-        <v>2099327</v>
+        <v>1638046</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>15</v>
@@ -4834,7 +4231,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>2</v>
@@ -4852,37 +4249,37 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H13" s="7">
-        <v>1047</v>
+        <v>1562</v>
       </c>
       <c r="I13" s="7">
-        <v>874371</v>
+        <v>1094932</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M13" s="7">
-        <v>1047</v>
+        <v>1562</v>
       </c>
       <c r="N13" s="7">
-        <v>874371</v>
+        <v>1094932</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4891,16 +4288,16 @@
         <v>1</v>
       </c>
       <c r="C14" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D14" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>15</v>
@@ -4918,22 +4315,22 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="M14" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="N14" s="7">
-        <v>728771</v>
+        <v>926831</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4942,10 +4339,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>15</v>
@@ -4957,10 +4354,10 @@
         <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1562</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1094932</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>15</v>
@@ -4972,10 +4369,10 @@
         <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>1723</v>
+        <v>2568</v>
       </c>
       <c r="N15" s="7">
-        <v>1603142</v>
+        <v>2021763</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>15</v>
@@ -4989,7 +4386,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>2</v>
@@ -5007,37 +4404,37 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H16" s="7">
-        <v>1562</v>
+        <v>5367</v>
       </c>
       <c r="I16" s="7">
-        <v>1150432</v>
+        <v>3712280</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="M16" s="7">
-        <v>1562</v>
+        <v>5367</v>
       </c>
       <c r="N16" s="7">
-        <v>1150432</v>
+        <v>3712280</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>193</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5046,16 +4443,16 @@
         <v>1</v>
       </c>
       <c r="C17" s="7">
-        <v>1006</v>
+        <v>3376</v>
       </c>
       <c r="D17" s="7">
-        <v>965403</v>
+        <v>3459817</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>15</v>
@@ -5073,22 +4470,22 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="M17" s="7">
-        <v>1006</v>
+        <v>3376</v>
       </c>
       <c r="N17" s="7">
-        <v>965403</v>
+        <v>3459817</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>196</v>
+        <v>99</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5097,10 +4494,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3376</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3459817</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>15</v>
@@ -5112,10 +4509,10 @@
         <v>15</v>
       </c>
       <c r="H18" s="7">
-        <v>1562</v>
+        <v>5367</v>
       </c>
       <c r="I18" s="7">
-        <v>1150432</v>
+        <v>3712280</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>15</v>
@@ -5127,10 +4524,10 @@
         <v>15</v>
       </c>
       <c r="M18" s="7">
-        <v>2568</v>
+        <v>8743</v>
       </c>
       <c r="N18" s="7">
-        <v>2115835</v>
+        <v>7172097</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>15</v>
@@ -5143,171 +4540,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="7">
-        <v>5367</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M19" s="7">
-        <v>5367</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3376</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3376</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3376</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5367</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8743</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7220809</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>72</v>
+      <c r="A19" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
